--- a/forecasts/GM.Close_forecast.xlsx
+++ b/forecasts/GM.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0224666266002219</v>
+        <v>0.0224627033698962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00769476436800401</v>
+        <v>0.0401021338143846</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0286904049149719</v>
+        <v>-0.0000453539451103434</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00675448173662392</v>
+        <v>-0.00573675784948532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0225337190409103</v>
+        <v>0.0225291821252723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0113321385633706</v>
+        <v>0.00520749384040228</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0105504880346743</v>
+        <v>0.044255331746344</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0112254094846871</v>
+        <v>-0.00180307029233273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" t="n">
-        <v>0.022600061925326</v>
+        <v>0.0225949179236744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0179571783310693</v>
+        <v>-0.0422163934028078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000587987004202553</v>
+        <v>-0.0230766687757231</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0133546654026892</v>
+        <v>0.0279576704817922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0226656663574323</v>
+        <v>0.0226599217448425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0451457143502287</v>
+        <v>0.00450456849939049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0390597250381436</v>
+        <v>-0.00997795172053036</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0126778307156488</v>
+        <v>-0.00774170547676878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0227305432031477</v>
+        <v>0.0227242043342132</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0219569872752434</v>
+        <v>-0.00412973538452147</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0112803170878722</v>
+        <v>-0.000893675791125095</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0368869577420264</v>
+        <v>0.00836009809872636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0227947030975712</v>
+        <v>0.0227877762099952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0472179925234612</v>
+        <v>-0.00721169109649171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00204491347266011</v>
+        <v>-0.0243531817390002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0134644177479992</v>
+        <v>-0.0201365175822395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0228581564519212</v>
+        <v>0.0228506476699658</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.150075774149128</v>
+        <v>-0.00680363632015526</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00810454871347908</v>
+        <v>0.00537544007901624</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00187583419383388</v>
+        <v>-0.00801513570797437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0229209134602009</v>
+        <v>0.0229128287979998</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0269437123523825</v>
+        <v>-0.00571897009539268</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00435663286851285</v>
+        <v>0.0210445932417655</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000852970290980602</v>
+        <v>0.000886165632088612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0229829841056037</v>
+        <v>0.0229743294703469</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0120998378265474</v>
+        <v>-0.00406363411571713</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00343278741892881</v>
+        <v>0.0405131921049895</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00812851657544717</v>
+        <v>-0.00705625456595649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0230443781666716</v>
+        <v>0.023035159361666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0218472928498848</v>
+        <v>-0.000527505213321979</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0128919797450681</v>
+        <v>-0.0005269647417281</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00963370198264335</v>
+        <v>0.0584436696850522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0231051052232177</v>
+        <v>0.0230953279508309</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0110801864432273</v>
+        <v>-0.0337977341531168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0262681100672619</v>
+        <v>-0.0467355272480625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0152905879437886</v>
+        <v>0.0225284253057523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0231651746620236</v>
+        <v>0.0231548445265163</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00854719955948671</v>
+        <v>0.0104759304716854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0559319531473198</v>
+        <v>0.0148366158029478</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.00684628237477102</v>
+        <v>0.0280783127893641</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0232245956823238</v>
+        <v>0.0232137181925753</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0192057470662387</v>
+        <v>-0.0131350625851041</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00390599444354766</v>
+        <v>0.00905570732891566</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00473882318836823</v>
+        <v>0.00460044747922003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0232833773010848</v>
+        <v>0.0232719578732165</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0211882525183223</v>
+        <v>-0.00407558046916121</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.00752124688628282</v>
+        <v>0.0225919650511518</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0113214781158341</v>
+        <v>0.0217999231293036</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0233415283580897</v>
+        <v>0.0233295723179922</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0153894127417885</v>
+        <v>-0.0210899979605301</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.019172716706937</v>
+        <v>-0.0173260196302532</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00895489329283808</v>
+        <v>0.00483809813368995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0233990575208367</v>
+        <v>0.0233865701066041</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0183230511960343</v>
+        <v>0.0198043454678542</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00648315923272573</v>
+        <v>-0.0411895981625816</v>
       </c>
       <c r="E17" t="n">
-        <v>0.025433933677696</v>
+        <v>0.0127210558357574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0234559732892601</v>
+        <v>0.0234429596535358</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00502807275877574</v>
+        <v>0.0054941877690987</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00359259500253271</v>
+        <v>-0.0484263948001906</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00616595253486352</v>
+        <v>-0.00994749239449972</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0235122840002811</v>
+        <v>0.0234987492125189</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00739987158296461</v>
+        <v>0.0010016774781907</v>
       </c>
       <c r="D19" t="n">
-        <v>0.011078607082859</v>
+        <v>0.033725890982996</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0176134883994447</v>
+        <v>-0.0160381894891502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0235679978321973</v>
+        <v>0.0235539468808418</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00321001442911149</v>
+        <v>-0.00033286034211955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00275785783652253</v>
+        <v>-0.0296207366353313</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0102459699181377</v>
+        <v>-0.00332126353561681</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0236231228089155</v>
+        <v>0.0236085606035056</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.00675431954730516</v>
+        <v>0.0392176913512695</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0456861985396929</v>
+        <v>0.0102700810587896</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00438491640092485</v>
+        <v>0.00187837328174598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0236776668040381</v>
+        <v>0.0236625981772357</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00789779447249289</v>
+        <v>-0.0176853334800123</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00172009362885228</v>
+        <v>-0.0077767403405751</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0148155693723951</v>
+        <v>-0.0403849050360396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0237316375448057</v>
+        <v>0.0237160672543547</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00212808898030819</v>
+        <v>-0.0145340334163228</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0239597534243621</v>
+        <v>0.00830992004261037</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0304030272330878</v>
+        <v>0.0224327074643087</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/GM.Close_forecast.xlsx
+++ b/forecasts/GM.Close_forecast.xlsx
@@ -389,13 +389,13 @@
         <v>0.0224627033698962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0401021338143846</v>
+        <v>0.0184119069885835</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0000453539451103434</v>
+        <v>0.00771342858234508</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00573675784948532</v>
+        <v>-0.0201589191980091</v>
       </c>
     </row>
     <row r="3">
@@ -406,13 +406,13 @@
         <v>0.0225291821252723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00520749384040228</v>
+        <v>-0.0310851983623197</v>
       </c>
       <c r="D3" t="n">
-        <v>0.044255331746344</v>
+        <v>-0.00738151008130155</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00180307029233273</v>
+        <v>-0.0410939829250691</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>0.0225949179236744</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0422163934028078</v>
+        <v>0.00575833613669564</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0230766687757231</v>
+        <v>0.000281200724587401</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0279576704817922</v>
+        <v>-0.0363435910691434</v>
       </c>
     </row>
     <row r="5">
@@ -440,13 +440,13 @@
         <v>0.0226599217448425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00450456849939049</v>
+        <v>0.0643612185968694</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00997795172053036</v>
+        <v>-0.0337975826847886</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00774170547676878</v>
+        <v>0.00520938200691625</v>
       </c>
     </row>
     <row r="6">
@@ -457,13 +457,13 @@
         <v>0.0227242043342132</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00412973538452147</v>
+        <v>0.0187507919901709</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.000893675791125095</v>
+        <v>0.00271636056809692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00836009809872636</v>
+        <v>0.0317616154696372</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>0.0227877762099952</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00721169109649171</v>
+        <v>0.00427060535858279</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0243531817390002</v>
+        <v>-0.00930454168949764</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0201365175822395</v>
+        <v>-0.050027847523534</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         <v>0.0228506476699658</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00680363632015526</v>
+        <v>-0.00564348074107609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00537544007901624</v>
+        <v>0.0125035737093294</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00801513570797437</v>
+        <v>0.0153522581203997</v>
       </c>
     </row>
     <row r="9">
@@ -508,13 +508,13 @@
         <v>0.0229128287979998</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00571897009539268</v>
+        <v>-0.000311695242301678</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0210445932417655</v>
+        <v>0.00471659781800776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000886165632088612</v>
+        <v>0.0078825436918684</v>
       </c>
     </row>
     <row r="10">
@@ -525,13 +525,13 @@
         <v>0.0229743294703469</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00406363411571713</v>
+        <v>-0.0213838738258159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0405131921049895</v>
+        <v>0.000646830362761002</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00705625456595649</v>
+        <v>0.00979236580351042</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +542,13 @@
         <v>0.023035159361666</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.000527505213321979</v>
+        <v>-0.0021565518664919</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0005269647417281</v>
+        <v>-0.0139336181710002</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0584436696850522</v>
+        <v>-0.00573695259447864</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +559,13 @@
         <v>0.0230953279508309</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0337977341531168</v>
+        <v>-0.000597552360318803</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0467355272480625</v>
+        <v>-0.0174970558115597</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0225284253057523</v>
+        <v>0.00317997620072457</v>
       </c>
     </row>
     <row r="13">
@@ -576,13 +576,13 @@
         <v>0.0231548445265163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0104759304716854</v>
+        <v>0.00578066847005879</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0148366158029478</v>
+        <v>-0.00649431020583422</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0280783127893641</v>
+        <v>-0.0183717599703447</v>
       </c>
     </row>
     <row r="14">
@@ -593,13 +593,13 @@
         <v>0.0232137181925753</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0131350625851041</v>
+        <v>0.0207742759295064</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00905570732891566</v>
+        <v>0.00992967238878747</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00460044747922003</v>
+        <v>-0.0200944456290652</v>
       </c>
     </row>
     <row r="15">
@@ -610,13 +610,13 @@
         <v>0.0232719578732165</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00407558046916121</v>
+        <v>-0.0571995957490372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0225919650511518</v>
+        <v>0.0360179909222156</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0217999231293036</v>
+        <v>0.018393854613145</v>
       </c>
     </row>
     <row r="16">
@@ -627,13 +627,13 @@
         <v>0.0233295723179922</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0210899979605301</v>
+        <v>0.0210536927687892</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0173260196302532</v>
+        <v>-0.014287360191265</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00483809813368995</v>
+        <v>0.0288044289571076</v>
       </c>
     </row>
     <row r="17">
@@ -644,13 +644,13 @@
         <v>0.0233865701066041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0198043454678542</v>
+        <v>-0.00690359939256396</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0411895981625816</v>
+        <v>0.0258712897639516</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0127210558357574</v>
+        <v>-0.0490218777157329</v>
       </c>
     </row>
     <row r="18">
@@ -661,13 +661,13 @@
         <v>0.0234429596535358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0054941877690987</v>
+        <v>-0.000227433542070864</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0484263948001906</v>
+        <v>0.0105278688698462</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.00994749239449972</v>
+        <v>0.0056808718061017</v>
       </c>
     </row>
     <row r="19">
@@ -678,13 +678,13 @@
         <v>0.0234987492125189</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0010016774781907</v>
+        <v>0.0140223077894156</v>
       </c>
       <c r="D19" t="n">
-        <v>0.033725890982996</v>
+        <v>0.00404332055112552</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0160381894891502</v>
+        <v>-0.018648773333898</v>
       </c>
     </row>
     <row r="20">
@@ -695,13 +695,13 @@
         <v>0.0235539468808418</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00033286034211955</v>
+        <v>0.0142281102749607</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0296207366353313</v>
+        <v>0.0291619280988518</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.00332126353561681</v>
+        <v>0.0127770180131375</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         <v>0.0236085606035056</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0392176913512695</v>
+        <v>0.0190771641260892</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0102700810587896</v>
+        <v>0.0114099886320249</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00187837328174598</v>
+        <v>-0.0369976887131229</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>0.0236625981772357</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0176853334800123</v>
+        <v>-0.00623455355762967</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0077767403405751</v>
+        <v>0.0025235459519455</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0403849050360396</v>
+        <v>0.0531078263567419</v>
       </c>
     </row>
     <row r="23">
@@ -746,13 +746,13 @@
         <v>0.0237160672543547</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0145340334163228</v>
+        <v>-0.00136320362341458</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00830992004261037</v>
+        <v>0.00883872653782805</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0224327074643087</v>
+        <v>0.0149634568463239</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/GM.Close_forecast.xlsx
+++ b/forecasts/GM.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0224627033698962</v>
+        <v>0.0210905242281141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0184119069885835</v>
+        <v>0.00964383093371993</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00771342858234508</v>
+        <v>-0.0122096507184969</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0201589191980091</v>
+        <v>-0.00503776265266604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0225291821252723</v>
+        <v>0.0211715132698087</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0310851983623197</v>
+        <v>0.00694733944382095</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00738151008130155</v>
+        <v>-0.00505318859253235</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0410939829250691</v>
+        <v>0.0237897751018007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0225949179236744</v>
+        <v>0.0212515163102496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00575833613669564</v>
+        <v>-0.0102496207939727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000281200724587401</v>
+        <v>0.0344826099603922</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0363435910691434</v>
+        <v>-0.00677179215504443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0226599217448425</v>
+        <v>0.0213305501204705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0643612185968694</v>
+        <v>0.00532576026220568</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0337975826847886</v>
+        <v>0.0111278941222595</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00520938200691625</v>
+        <v>-0.0758799206894925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0227242043342132</v>
+        <v>0.0214086310431058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0187507919901709</v>
+        <v>-0.00748134146095299</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00271636056809692</v>
+        <v>-0.0114808016164497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0317616154696372</v>
+        <v>-0.0580680269189756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0227877762099952</v>
+        <v>0.0214857750079802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00427060535858279</v>
+        <v>0.00446572948503117</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00930454168949764</v>
+        <v>-0.0137138167570917</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.050027847523534</v>
+        <v>-0.0368880887054686</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0228506476699658</v>
+        <v>0.0215619975469597</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00564348074107609</v>
+        <v>0.0083819990485167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0125035737093294</v>
+        <v>-0.023772624705359</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0153522581203997</v>
+        <v>0.0246491356212049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0229128287979998</v>
+        <v>0.0216373138081065</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.000311695242301678</v>
+        <v>0.01654450332255</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00471659781800776</v>
+        <v>0.00357450357078576</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0078825436918684</v>
+        <v>0.0344900767824705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0229743294703469</v>
+        <v>0.021711738569178</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0213838738258159</v>
+        <v>-0.000203070350429852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000646830362761002</v>
+        <v>0.0143798282810244</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00979236580351042</v>
+        <v>-0.0278945278673617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" t="n">
-        <v>0.023035159361666</v>
+        <v>0.0217852862505067</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0021565518664919</v>
+        <v>0.0128221493556655</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0139336181710002</v>
+        <v>0.000922928166144213</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00573695259447864</v>
+        <v>-0.00457014542291697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0230953279508309</v>
+        <v>0.0218579709272963</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.000597552360318803</v>
+        <v>-0.0182712531296851</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0174970558115597</v>
+        <v>-0.0253006839362412</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00317997620072457</v>
+        <v>0.0216005660493099</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0231548445265163</v>
+        <v>0.0219298063413655</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00578066847005879</v>
+        <v>0.00955820725980516</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.00649431020583422</v>
+        <v>-0.00264829683021162</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0183717599703447</v>
+        <v>0.0129860031814813</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0232137181925753</v>
+        <v>0.022000805912371</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0207742759295064</v>
+        <v>-0.0226879457239812</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00992967238878747</v>
+        <v>-0.00404785795756745</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0200944456290652</v>
+        <v>-0.0094199854756164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0232719578732165</v>
+        <v>0.0220709827485366</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0571995957490372</v>
+        <v>0.000998217941906468</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0360179909222156</v>
+        <v>-0.00144455909689273</v>
       </c>
       <c r="E15" t="n">
-        <v>0.018393854613145</v>
+        <v>-0.000649561853802429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0233295723179922</v>
+        <v>0.022140349656916</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0210536927687892</v>
+        <v>-0.00712314747503107</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.014287360191265</v>
+        <v>0.0137848999451576</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0288044289571076</v>
+        <v>0.0122176068546827</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0233865701066041</v>
+        <v>0.0222089191532144</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00690359939256396</v>
+        <v>0.00270323167610617</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0258712897639516</v>
+        <v>-0.0237484502454917</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0490218777157329</v>
+        <v>0.0176331389826619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0234429596535358</v>
+        <v>0.0222767034711909</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.000227433542070864</v>
+        <v>-0.00213693316346681</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0105278688698462</v>
+        <v>-0.0132190737748012</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0056808718061017</v>
+        <v>0.00568841657790419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0234987492125189</v>
+        <v>0.0223437145716642</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0140223077894156</v>
+        <v>0.00185181758961599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00404332055112552</v>
+        <v>0.0186786778836479</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.018648773333898</v>
+        <v>0.0163995786489712</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0235539468808418</v>
+        <v>0.022409964151143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0142281102749607</v>
+        <v>0.0217757475598132</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0291619280988518</v>
+        <v>-0.0113203489410958</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0127770180131375</v>
+        <v>0.0257062159760865</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0236085606035056</v>
+        <v>0.0224754636500991</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0190771641260892</v>
+        <v>-0.0165299230925002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0114099886320249</v>
+        <v>0.0000846246813505017</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0369976887131229</v>
+        <v>0.00190795277203368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0236625981772357</v>
+        <v>0.0225402242609011</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00623455355762967</v>
+        <v>-0.0235180040423211</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0025235459519455</v>
+        <v>-0.0131483178227334</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0531078263567419</v>
+        <v>-0.0168694371861573</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0237160672543547</v>
+        <v>0.0226042569354277</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00136320362341458</v>
+        <v>0.000362675291158042</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00883872653782805</v>
+        <v>0.0167821932026369</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0149634568463239</v>
+        <v>0.00507686477404349</v>
       </c>
     </row>
   </sheetData>
